--- a/Aula 10/exercicios-funcoes.xlsx
+++ b/Aula 10/exercicios-funcoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gabrielzontabatista1des\SOP\Aula 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AF61E0-A130-40B9-83B2-4B93DE194B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54619F4F-5D1E-4392-9D90-B0E6E5C273AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Porcentagem" sheetId="13" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1773,8 +1773,8 @@
         <v>24</v>
       </c>
       <c r="D8" s="75">
-        <f>(B8+F8)*C8</f>
-        <v>121.19999999999999</v>
+        <f>B8+B8*F8</f>
+        <v>5.25</v>
       </c>
       <c r="F8" s="23">
         <v>0.05</v>
@@ -1791,8 +1791,8 @@
         <v>31</v>
       </c>
       <c r="D9" s="75">
-        <f t="shared" ref="D9:D17" si="0">(B9+F9)*C9</f>
-        <v>124</v>
+        <f t="shared" ref="D9:D17" si="0">B9+B9*F9</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D10" s="75">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D11" s="75">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D12" s="75">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D13" s="75">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D14" s="75">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D15" s="75">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D16" s="75">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D17" s="75">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2037,7 +2037,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2206,7 +2206,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2375,7 +2375,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2855,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
